--- a/figures/final_figures/PanelA/frac_tuned_statistics.xlsx
+++ b/figures/final_figures/PanelA/frac_tuned_statistics.xlsx
@@ -513,28 +513,28 @@
         <v>257</v>
       </c>
       <c r="C2">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="D2">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="E2">
         <v>0.5291828793774319</v>
       </c>
       <c r="F2">
-        <v>0.6705685618729097</v>
+        <v>0.6703817219281136</v>
       </c>
       <c r="G2">
-        <v>0.3306997742663657</v>
+        <v>0.3318385650224215</v>
       </c>
       <c r="H2">
-        <v>347.3186226179977</v>
+        <v>346.4033968890922</v>
       </c>
       <c r="I2">
-        <v>3.808196656364853E-76</v>
+        <v>6.01808211492764E-76</v>
       </c>
       <c r="J2">
-        <v>3.808196656364853E-76</v>
+        <v>6.01808211492764E-76</v>
       </c>
       <c r="K2" t="s">
         <v>28</v>
@@ -551,7 +551,7 @@
         <v>3868</v>
       </c>
       <c r="D3">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="E3">
         <v>0.5390625</v>
@@ -560,16 +560,16 @@
         <v>0.5436918304033092</v>
       </c>
       <c r="G3">
-        <v>0.3916004540295119</v>
+        <v>0.3932203389830509</v>
       </c>
       <c r="H3">
-        <v>67.00917961999139</v>
+        <v>65.83389394528568</v>
       </c>
       <c r="I3">
-        <v>2.812817316792861E-15</v>
+        <v>5.062343013474745E-15</v>
       </c>
       <c r="J3">
-        <v>2.812817316792861E-15</v>
+        <v>5.062343013474745E-15</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
@@ -586,7 +586,7 @@
         <v>3696</v>
       </c>
       <c r="D4">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="E4">
         <v>0.139917695473251</v>
@@ -595,16 +595,16 @@
         <v>0.5822510822510822</v>
       </c>
       <c r="G4">
-        <v>0.03389830508474576</v>
+        <v>0.03591470258136925</v>
       </c>
       <c r="H4">
-        <v>969.6627789271021</v>
+        <v>967.9441746548476</v>
       </c>
       <c r="I4">
-        <v>2.756785034479105E-211</v>
+        <v>6.510181228549395E-211</v>
       </c>
       <c r="J4">
-        <v>2.756785034479105E-211</v>
+        <v>6.510181228549395E-211</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
@@ -621,7 +621,7 @@
         <v>3878</v>
       </c>
       <c r="D5">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="E5">
         <v>0.1954022988505747</v>
@@ -630,16 +630,16 @@
         <v>0.4958741619391439</v>
       </c>
       <c r="G5">
-        <v>0.04063205417607223</v>
+        <v>0.04147982062780269</v>
       </c>
       <c r="H5">
-        <v>670.8095191695484</v>
+        <v>671.9305946569842</v>
       </c>
       <c r="I5">
-        <v>2.16552752516097E-146</v>
+        <v>1.236303956917761E-146</v>
       </c>
       <c r="J5">
-        <v>2.16552752516097E-146</v>
+        <v>1.236303956917761E-146</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
@@ -656,7 +656,7 @@
         <v>3863</v>
       </c>
       <c r="D6">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="E6">
         <v>0.3192307692307692</v>
@@ -665,16 +665,16 @@
         <v>0.8200880144965053</v>
       </c>
       <c r="G6">
-        <v>0.4590909090909091</v>
+        <v>0.4582392776523702</v>
       </c>
       <c r="H6">
-        <v>710.2412902320633</v>
+        <v>713.7716129607984</v>
       </c>
       <c r="I6">
-        <v>5.930119105458449E-155</v>
+        <v>1.014994236018243E-155</v>
       </c>
       <c r="J6">
-        <v>5.930119105458449E-155</v>
+        <v>1.014994236018243E-155</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -685,31 +685,31 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C7">
         <v>3852</v>
       </c>
       <c r="D7">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="E7">
-        <v>0.428030303030303</v>
+        <v>0.4264150943396227</v>
       </c>
       <c r="F7">
         <v>0.7910176531671859</v>
       </c>
       <c r="G7">
-        <v>0.5154994259471871</v>
+        <v>0.5153933865450399</v>
       </c>
       <c r="H7">
-        <v>391.5187832302149</v>
+        <v>394.3502728864512</v>
       </c>
       <c r="I7">
-        <v>9.611174023524811E-86</v>
+        <v>2.333061968156292E-86</v>
       </c>
       <c r="J7">
-        <v>9.611174023524811E-86</v>
+        <v>2.333061968156292E-86</v>
       </c>
       <c r="K7" t="s">
         <v>28</v>
@@ -726,7 +726,7 @@
         <v>3859</v>
       </c>
       <c r="D8">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="E8">
         <v>0.6083650190114068</v>
@@ -735,16 +735,16 @@
         <v>0.5550660792951542</v>
       </c>
       <c r="G8">
-        <v>0.8568181818181818</v>
+        <v>0.8576271186440678</v>
       </c>
       <c r="H8">
-        <v>274.5206007182367</v>
+        <v>277.3732832786765</v>
       </c>
       <c r="I8">
-        <v>2.446859145102367E-60</v>
+        <v>5.877015313530793E-61</v>
       </c>
       <c r="J8">
-        <v>2.446859145102367E-60</v>
+        <v>5.877015313530793E-61</v>
       </c>
       <c r="K8" t="s">
         <v>28</v>
@@ -761,7 +761,7 @@
         <v>3924</v>
       </c>
       <c r="D9">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="E9">
         <v>0.2556390977443609</v>
@@ -770,16 +770,16 @@
         <v>0.2145769622833843</v>
       </c>
       <c r="G9">
-        <v>0.3077790304396844</v>
+        <v>0.3079507278835386</v>
       </c>
       <c r="H9">
-        <v>35.96849276878147</v>
+        <v>36.27137643515762</v>
       </c>
       <c r="I9">
-        <v>1.547180681541189E-08</v>
+        <v>1.329752090013952E-08</v>
       </c>
       <c r="J9">
-        <v>1.547180681541189E-08</v>
+        <v>1.329752090013952E-08</v>
       </c>
       <c r="K9" t="s">
         <v>30</v>
@@ -796,7 +796,7 @@
         <v>3904</v>
       </c>
       <c r="D10">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="E10">
         <v>0.3886792452830189</v>
@@ -805,16 +805,16 @@
         <v>0.3657786885245902</v>
       </c>
       <c r="G10">
-        <v>0.5373303167420814</v>
+        <v>0.5382022471910113</v>
       </c>
       <c r="H10">
-        <v>88.69278649298283</v>
+        <v>90.07218355639236</v>
       </c>
       <c r="I10">
-        <v>5.503083730498256E-20</v>
+        <v>2.761047348068049E-20</v>
       </c>
       <c r="J10">
-        <v>5.503083730498256E-20</v>
+        <v>2.761047348068049E-20</v>
       </c>
       <c r="K10" t="s">
         <v>28</v>
@@ -831,7 +831,7 @@
         <v>3932</v>
       </c>
       <c r="D11">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="E11">
         <v>0.3544776119402985</v>
@@ -840,16 +840,16 @@
         <v>0.4366734486266531</v>
       </c>
       <c r="G11">
-        <v>0.5653153153153153</v>
+        <v>0.5648769574944071</v>
       </c>
       <c r="H11">
-        <v>59.828866865684</v>
+        <v>59.77455841260907</v>
       </c>
       <c r="I11">
-        <v>1.019357754041036E-13</v>
+        <v>1.047416863018927E-13</v>
       </c>
       <c r="J11">
-        <v>1.019357754041036E-13</v>
+        <v>1.047416863018927E-13</v>
       </c>
       <c r="K11" t="s">
         <v>28</v>
@@ -866,7 +866,7 @@
         <v>3926</v>
       </c>
       <c r="D12">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="E12">
         <v>0.3370786516853932</v>
@@ -875,16 +875,16 @@
         <v>0.3013245033112583</v>
       </c>
       <c r="G12">
-        <v>0.456299659477866</v>
+        <v>0.4559819413092551</v>
       </c>
       <c r="H12">
-        <v>78.20861302556962</v>
+        <v>78.23940204462031</v>
       </c>
       <c r="I12">
-        <v>1.040436220618365E-17</v>
+        <v>1.024541872059801E-17</v>
       </c>
       <c r="J12">
-        <v>1.040436220618365E-17</v>
+        <v>1.024541872059801E-17</v>
       </c>
       <c r="K12" t="s">
         <v>28</v>
@@ -901,7 +901,7 @@
         <v>3931</v>
       </c>
       <c r="D13">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="E13">
         <v>0.6804511278195489</v>
@@ -910,16 +910,16 @@
         <v>0.9842279318239634</v>
       </c>
       <c r="G13">
-        <v>0.8130630630630631</v>
+        <v>0.8098434004474273</v>
       </c>
       <c r="H13">
-        <v>690.8154925421608</v>
+        <v>697.5144146963349</v>
       </c>
       <c r="I13">
-        <v>9.802160014379842E-151</v>
+        <v>3.440878397594505E-152</v>
       </c>
       <c r="J13">
-        <v>9.802160014379842E-151</v>
+        <v>3.440878397594505E-152</v>
       </c>
       <c r="K13" t="s">
         <v>29</v>
@@ -936,7 +936,7 @@
         <v>3937</v>
       </c>
       <c r="D14">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="E14">
         <v>0.3571428571428572</v>
@@ -945,16 +945,16 @@
         <v>0.8536957073914148</v>
       </c>
       <c r="G14">
-        <v>0.3565804274465692</v>
+        <v>0.3541899441340782</v>
       </c>
       <c r="H14">
-        <v>1149.190943763509</v>
+        <v>1159.850519016289</v>
       </c>
       <c r="I14">
-        <v>2.859942062493277E-250</v>
+        <v>1.385670206706806E-252</v>
       </c>
       <c r="J14">
-        <v>2.859942062493277E-250</v>
+        <v>1.385670206706806E-252</v>
       </c>
       <c r="K14" t="s">
         <v>29</v>
@@ -971,7 +971,7 @@
         <v>3935</v>
       </c>
       <c r="D15">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="E15">
         <v>0.5601503759398496</v>
@@ -980,16 +980,16 @@
         <v>0.8409148665819568</v>
       </c>
       <c r="G15">
-        <v>0.3262092238470191</v>
+        <v>0.3240223463687151</v>
       </c>
       <c r="H15">
-        <v>1034.437563182745</v>
+        <v>1045.704921445464</v>
       </c>
       <c r="I15">
-        <v>2.369939274601034E-225</v>
+        <v>8.473473168356391E-228</v>
       </c>
       <c r="J15">
-        <v>2.369939274601034E-225</v>
+        <v>8.473473168356391E-228</v>
       </c>
       <c r="K15" t="s">
         <v>29</v>
@@ -1006,7 +1006,7 @@
         <v>3675</v>
       </c>
       <c r="D16">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="E16">
         <v>0.3057851239669421</v>
@@ -1015,16 +1015,16 @@
         <v>0.5570068027210885</v>
       </c>
       <c r="G16">
-        <v>0.3415492957746479</v>
+        <v>0.3438228438228438</v>
       </c>
       <c r="H16">
-        <v>169.2356821057468</v>
+        <v>167.3384793169297</v>
       </c>
       <c r="I16">
-        <v>1.782126631383436E-37</v>
+        <v>4.601621688359546E-37</v>
       </c>
       <c r="J16">
-        <v>1.782126631383436E-37</v>
+        <v>4.601621688359546E-37</v>
       </c>
       <c r="K16" t="s">
         <v>28</v>
@@ -1041,7 +1041,7 @@
         <v>3820</v>
       </c>
       <c r="D17">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="E17">
         <v>0.5708502024291497</v>
@@ -1050,16 +1050,16 @@
         <v>0.2204188481675393</v>
       </c>
       <c r="G17">
-        <v>0.4912280701754386</v>
+        <v>0.4936120789779326</v>
       </c>
       <c r="H17">
-        <v>355.6404473355539</v>
+        <v>360.5516430994778</v>
       </c>
       <c r="I17">
-        <v>5.938244706560541E-78</v>
+        <v>5.095719108683914E-79</v>
       </c>
       <c r="J17">
-        <v>5.938244706560541E-78</v>
+        <v>5.095719108683914E-79</v>
       </c>
       <c r="K17" t="s">
         <v>28</v>
@@ -1076,7 +1076,7 @@
         <v>3758</v>
       </c>
       <c r="D18">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="E18">
         <v>0.6286919831223629</v>
@@ -1085,16 +1085,16 @@
         <v>0.1875997871208089</v>
       </c>
       <c r="G18">
-        <v>0.5396270396270396</v>
+        <v>0.5393518518518519</v>
       </c>
       <c r="H18">
-        <v>598.6619210087443</v>
+        <v>599.8073388814294</v>
       </c>
       <c r="I18">
-        <v>1.005114620095154E-130</v>
+        <v>5.66880162340985E-131</v>
       </c>
       <c r="J18">
-        <v>1.005114620095154E-130</v>
+        <v>5.66880162340985E-131</v>
       </c>
       <c r="K18" t="s">
         <v>29</v>
